--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.17831799999999</v>
+        <v>37.98512966666667</v>
       </c>
       <c r="H2">
-        <v>288.534954</v>
+        <v>113.955389</v>
       </c>
       <c r="I2">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893128</v>
       </c>
       <c r="J2">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>693.8410297858586</v>
+        <v>11.02287945455022</v>
       </c>
       <c r="R2">
-        <v>6244.569268072727</v>
+        <v>99.205915090952</v>
       </c>
       <c r="S2">
-        <v>0.3393582462254739</v>
+        <v>0.01743995994958138</v>
       </c>
       <c r="T2">
-        <v>0.3393582462254739</v>
+        <v>0.01743995994958138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.17831799999999</v>
+        <v>37.98512966666667</v>
       </c>
       <c r="H3">
-        <v>288.534954</v>
+        <v>113.955389</v>
       </c>
       <c r="I3">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893128</v>
       </c>
       <c r="J3">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>683.8615675101786</v>
+        <v>270.0875920488031</v>
       </c>
       <c r="R3">
-        <v>6154.754107591607</v>
+        <v>2430.788328439228</v>
       </c>
       <c r="S3">
-        <v>0.3344772826174364</v>
+        <v>0.4273218089367376</v>
       </c>
       <c r="T3">
-        <v>0.3344772826174364</v>
+        <v>0.4273218089367377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.17831799999999</v>
+        <v>37.98512966666667</v>
       </c>
       <c r="H4">
-        <v>288.534954</v>
+        <v>113.955389</v>
       </c>
       <c r="I4">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893128</v>
       </c>
       <c r="J4">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>102.0736962395673</v>
+        <v>40.31347883642456</v>
       </c>
       <c r="R4">
-        <v>918.6632661561058</v>
+        <v>362.821309527821</v>
       </c>
       <c r="S4">
-        <v>0.04992433288688935</v>
+        <v>0.06378237730299381</v>
       </c>
       <c r="T4">
-        <v>0.04992433288688935</v>
+        <v>0.06378237730299381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>39.705124</v>
       </c>
       <c r="I5">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="J5">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>95.47905285657421</v>
+        <v>3.840667821159111</v>
       </c>
       <c r="R5">
-        <v>859.3114757091679</v>
+        <v>34.566010390432</v>
       </c>
       <c r="S5">
-        <v>0.0466988871192534</v>
+        <v>0.006076551345484526</v>
       </c>
       <c r="T5">
-        <v>0.0466988871192534</v>
+        <v>0.006076551345484527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>39.705124</v>
       </c>
       <c r="I6">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="J6">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>94.10578496782755</v>
@@ -818,10 +818,10 @@
         <v>846.952064710448</v>
       </c>
       <c r="S6">
-        <v>0.04602722061018769</v>
+        <v>0.1488904172117518</v>
       </c>
       <c r="T6">
-        <v>0.04602722061018769</v>
+        <v>0.1488904172117519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>39.705124</v>
       </c>
       <c r="I7">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="J7">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
         <v>14.04630083858178</v>
@@ -880,10 +880,10 @@
         <v>126.416707547236</v>
       </c>
       <c r="S7">
-        <v>0.006870057857500411</v>
+        <v>0.02222349659856942</v>
       </c>
       <c r="T7">
-        <v>0.006870057857500411</v>
+        <v>0.02222349659856942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>23.47369766666667</v>
       </c>
       <c r="H8">
-        <v>70.42109300000001</v>
+        <v>70.421093</v>
       </c>
       <c r="I8">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="J8">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>169.3418527232085</v>
+        <v>6.811816676758222</v>
       </c>
       <c r="R8">
-        <v>1524.076674508876</v>
+        <v>61.306350090824</v>
       </c>
       <c r="S8">
-        <v>0.08282524625339154</v>
+        <v>0.01077738448618473</v>
       </c>
       <c r="T8">
-        <v>0.08282524625339155</v>
+        <v>0.01077738448618473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>23.47369766666667</v>
       </c>
       <c r="H9">
-        <v>70.42109300000001</v>
+        <v>70.421093</v>
       </c>
       <c r="I9">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="J9">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>166.9062218533151</v>
@@ -1004,10 +1004,10 @@
         <v>1502.155996679836</v>
       </c>
       <c r="S9">
-        <v>0.08163397709377622</v>
+        <v>0.2640723629846258</v>
       </c>
       <c r="T9">
-        <v>0.08163397709377623</v>
+        <v>0.2640723629846258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>23.47369766666667</v>
       </c>
       <c r="H10">
-        <v>70.42109300000001</v>
+        <v>70.421093</v>
       </c>
       <c r="I10">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="J10">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>24.91254926340855</v>
+        <v>24.91254926340856</v>
       </c>
       <c r="R10">
         <v>224.212943370677</v>
       </c>
       <c r="S10">
-        <v>0.01218474933609116</v>
+        <v>0.03941564118407087</v>
       </c>
       <c r="T10">
-        <v>0.01218474933609116</v>
+        <v>0.03941564118407087</v>
       </c>
     </row>
   </sheetData>
